--- a/Results/RectangleResults/2016/Human_Rectangle_2016.xlsx
+++ b/Results/RectangleResults/2016/Human_Rectangle_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\RectangleResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\Results\RectangleResults\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Humano_Rectangle_2016" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Humano</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>% sobre optimo</t>
+  </si>
+  <si>
+    <t>Porcentaje optimo</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -721,7 +724,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1044,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44:S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>12</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>22</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>8</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>10</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>40</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>12</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>31</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>13</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>8</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>10</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>55</v>
       </c>
@@ -2692,8 +2695,14 @@
       <c r="Q44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <f>200*($R34-C34)/$R34+100*C23</f>
         <v>340</v>
@@ -2754,8 +2763,15 @@
         <f>AVERAGE(C45:P45)</f>
         <v>307.85714285714283</v>
       </c>
-    </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>350</v>
+      </c>
+      <c r="S45" s="3">
+        <f>100*Q45/R45</f>
+        <v>87.959183673469383</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <f t="shared" ref="C46:P54" si="3">200*($R35-C35)/$R35+100*C24</f>
         <v>532.30769230769238</v>
@@ -2813,11 +2829,18 @@
         <v>504.61538461538464</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" ref="Q46:Q56" si="4">AVERAGE(C46:P46)</f>
+        <f t="shared" ref="Q46:Q55" si="4">AVERAGE(C46:P46)</f>
         <v>484.17582417582423</v>
       </c>
-    </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>551</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" ref="S46:S54" si="5">100*Q46/R46</f>
+        <v>87.872200394886434</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <f t="shared" si="3"/>
         <v>354.28571428571428</v>
@@ -2878,8 +2901,15 @@
         <f t="shared" si="4"/>
         <v>242.85714285714286</v>
       </c>
-    </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>383</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="5"/>
+        <v>63.409175680716153</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <f t="shared" si="3"/>
         <v>433.33333333333337</v>
@@ -2940,8 +2970,15 @@
         <f t="shared" si="4"/>
         <v>364.7619047619047</v>
       </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>480</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="5"/>
+        <v>75.99206349206348</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -3002,8 +3039,15 @@
         <f t="shared" si="4"/>
         <v>278.21428571428572</v>
       </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>465</v>
+      </c>
+      <c r="S49" s="3">
+        <f t="shared" si="5"/>
+        <v>59.831029185867898</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
         <f t="shared" si="3"/>
         <v>473.33333333333337</v>
@@ -3064,8 +3108,15 @@
         <f t="shared" si="4"/>
         <v>373.01587301587296</v>
       </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>484</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="5"/>
+        <v>77.069395251213422</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <f t="shared" si="3"/>
         <v>531.11111111111109</v>
@@ -3126,8 +3177,15 @@
         <f t="shared" si="4"/>
         <v>484.60317460317458</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>567</v>
+      </c>
+      <c r="S51" s="3">
+        <f t="shared" si="5"/>
+        <v>85.467932028778577</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
         <f t="shared" si="3"/>
         <v>571.11111111111109</v>
@@ -3188,8 +3246,15 @@
         <f t="shared" si="4"/>
         <v>411.74603174603175</v>
       </c>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>573</v>
+      </c>
+      <c r="S52" s="3">
+        <f t="shared" si="5"/>
+        <v>71.857946203495942</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
         <f t="shared" si="3"/>
         <v>382.22222222222223</v>
@@ -3250,8 +3315,15 @@
         <f t="shared" si="4"/>
         <v>375.71428571428567</v>
       </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>389</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="5"/>
+        <v>96.584649283878065</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <f t="shared" si="3"/>
         <v>677.77777777777783</v>
@@ -3312,8 +3384,15 @@
         <f t="shared" si="4"/>
         <v>675.55555555555554</v>
       </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>691</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" si="5"/>
+        <v>97.7649139733076</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>69</v>
       </c>
@@ -3322,55 +3401,55 @@
         <v>4495.4822954822957</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ref="D55:P55" si="5">SUM(D45:D54)</f>
+        <f t="shared" ref="D55:P55" si="6">SUM(D45:D54)</f>
         <v>4257.8205128205127</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4066.7216117216117</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3742.7777777777778</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3983.7240537240541</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4310.4395604395613</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3938.6752136752139</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3851.562881562882</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3916.9352869352874</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3876.068376068376</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3752.7777777777774</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3829.4871794871797</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3344.2307692307695</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4612.3137973137964</v>
       </c>
       <c r="Q55" s="3">
@@ -3378,7 +3457,7 @@
         <v>3998.501221001221</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>70</v>
       </c>
@@ -3387,59 +3466,59 @@
         <v>0.9113079861103377</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:Q56" si="6">D55/$I14</f>
+        <f t="shared" ref="D56:Q56" si="7">D55/$I14</f>
         <v>0.86313004516937208</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82439116394113354</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.75872243620064417</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.80756619779526739</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87379678906133418</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.79843405912734922</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.78077496078712383</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.79402701944765608</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.78574262640753623</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.76074960019821147</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77629985394023504</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.67793042149417582</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93499164753979247</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81056177194429779</v>
       </c>
     </row>
